--- a/src/files/helloworld.xlsx
+++ b/src/files/helloworld.xlsx
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Node</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Jay-Bergman Field</t>
   </si>
   <si>
@@ -61,13 +55,58 @@
   </si>
   <si>
     <t>End Node</t>
+  </si>
+  <si>
+    <t>World Y</t>
+  </si>
+  <si>
+    <t>World X</t>
+  </si>
+  <si>
+    <t>Grid X</t>
+  </si>
+  <si>
+    <t>Grid Y</t>
+  </si>
+  <si>
+    <t>Fire Station,Jay-Bergman Field</t>
+  </si>
+  <si>
+    <t>Fire Station,Softball Field</t>
+  </si>
+  <si>
+    <t>Jay-Bergman Field,CFE Arena</t>
+  </si>
+  <si>
+    <t>Softball Field,CFE Arena</t>
+  </si>
+  <si>
+    <t>CFE Arena,Lake Claire</t>
+  </si>
+  <si>
+    <t>CFE Arena,Early Childhood Center</t>
+  </si>
+  <si>
+    <t>Milican Hall,Lake Claire</t>
+  </si>
+  <si>
+    <t>Milican Hall,Early Childhood Center</t>
+  </si>
+  <si>
+    <t>Neighboring Nodes</t>
+  </si>
+  <si>
+    <t>Obstructed (T/F)</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +116,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,9 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,107 +483,155 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>28.611611</v>
+      </c>
+      <c r="E4">
+        <v>-81.191552999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>28.609303000000001</v>
+      </c>
+      <c r="E5">
+        <v>-81.196937000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>28.611611</v>
-      </c>
-      <c r="C4">
-        <v>-81.191552999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>28.605803999999999</v>
+      </c>
+      <c r="E6">
+        <v>-81.192265000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>28.609303000000001</v>
-      </c>
-      <c r="C5">
-        <v>-81.196937000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>28.606383000000001</v>
+      </c>
+      <c r="E7">
+        <v>-81.197869999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>28.605803999999999</v>
-      </c>
-      <c r="C6">
-        <v>-81.192265000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>28.597994</v>
+      </c>
+      <c r="E8">
+        <v>-81.197269000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>28.606475</v>
+      </c>
+      <c r="E9">
+        <v>-81.203639999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>28.606383000000001</v>
-      </c>
-      <c r="C7">
-        <v>-81.197869999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>28.597994</v>
-      </c>
-      <c r="C8">
-        <v>-81.197269000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>28.606475</v>
-      </c>
-      <c r="C9">
-        <v>-81.203639999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
       <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>87</v>
+      </c>
+      <c r="D10">
         <v>28.597363000000001</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>-81.203362999999996</v>
       </c>
     </row>
@@ -547,86 +643,402 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>119</v>
+      </c>
+      <c r="G3">
+        <v>97</v>
+      </c>
+      <c r="H3">
+        <v>196</v>
+      </c>
+      <c r="I3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="C4">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>135</v>
+      </c>
+      <c r="G4">
+        <v>96</v>
+      </c>
+      <c r="H4">
+        <v>229</v>
+      </c>
+      <c r="I4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <v>153</v>
+      </c>
+      <c r="G5">
+        <v>188</v>
+      </c>
+      <c r="H5">
+        <v>205</v>
+      </c>
+      <c r="I5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>86</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>107</v>
+      </c>
+      <c r="F6">
+        <v>171</v>
+      </c>
+      <c r="G6">
+        <v>119</v>
+      </c>
+      <c r="H6">
+        <v>179</v>
+      </c>
+      <c r="I6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>132</v>
+      </c>
+      <c r="C7">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>105</v>
+      </c>
+      <c r="F7">
+        <v>204</v>
+      </c>
+      <c r="G7">
+        <v>177</v>
+      </c>
+      <c r="H7">
+        <v>173</v>
+      </c>
+      <c r="I7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>97</v>
+      </c>
+      <c r="D8">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>102</v>
+      </c>
+      <c r="F8">
+        <v>87</v>
+      </c>
+      <c r="G8">
+        <v>215</v>
+      </c>
+      <c r="H8">
+        <v>207</v>
+      </c>
+      <c r="I8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <v>112</v>
+      </c>
+      <c r="E9">
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>148</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>207</v>
+      </c>
+      <c r="I9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <v>74</v>
+      </c>
+      <c r="G10">
+        <v>104</v>
+      </c>
+      <c r="H10">
+        <v>229</v>
+      </c>
+      <c r="I10">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>107</v>
+      </c>
+      <c r="D11">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>86</v>
+      </c>
+      <c r="F11">
+        <v>78</v>
+      </c>
+      <c r="G11">
+        <v>143</v>
+      </c>
+      <c r="H11">
+        <v>191</v>
+      </c>
+      <c r="I11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>112</v>
+      </c>
+      <c r="D12">
+        <v>86</v>
+      </c>
+      <c r="E12">
+        <v>74</v>
+      </c>
+      <c r="F12">
+        <v>82</v>
+      </c>
+      <c r="G12">
+        <v>125</v>
+      </c>
+      <c r="H12">
+        <v>266</v>
+      </c>
+      <c r="I12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>91</v>
+      </c>
+      <c r="G13">
+        <v>159</v>
+      </c>
+      <c r="H13">
+        <v>199</v>
+      </c>
+      <c r="I13">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>132</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>68</v>
+      </c>
+      <c r="F14">
+        <v>99</v>
+      </c>
+      <c r="G14">
+        <v>191</v>
+      </c>
+      <c r="H14">
+        <v>206</v>
+      </c>
+      <c r="I14">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="E3:E14">
+    <sortCondition descending="1" ref="E3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/files/helloworld.xlsx
+++ b/src/files/helloworld.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Node</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Consider Time %</t>
+  </si>
+  <si>
+    <t>Consider Dist %</t>
+  </si>
+  <si>
+    <t>Consider Elev %</t>
+  </si>
+  <si>
+    <t># Iterations</t>
+  </si>
+  <si>
+    <t>Obstruction %</t>
   </si>
 </sst>
 </file>
@@ -469,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,26 +498,59 @@
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +566,11 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -532,8 +586,11 @@
       <c r="E4">
         <v>-81.191552999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -549,8 +606,11 @@
       <c r="E5">
         <v>-81.196937000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -566,8 +626,11 @@
       <c r="E6">
         <v>-81.192265000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -583,8 +646,11 @@
       <c r="E7">
         <v>-81.197869999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -600,8 +666,11 @@
       <c r="E8">
         <v>-81.197269000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -617,8 +686,11 @@
       <c r="E9">
         <v>-81.203639999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -634,10 +706,13 @@
       <c r="E10">
         <v>-81.203362999999996</v>
       </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -645,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +733,7 @@
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/files/helloworld.xlsx
+++ b/src/files/helloworld.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Node</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Neighboring Nodes</t>
-  </si>
-  <si>
-    <t>Obstructed (T/F)</t>
   </si>
   <si>
     <t>Time (s)</t>
@@ -489,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -512,19 +509,19 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,348 +766,319 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="B2">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>107</v>
+      </c>
+      <c r="E2">
+        <v>132</v>
+      </c>
+      <c r="F2">
+        <v>119</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <v>196</v>
+      </c>
+      <c r="I2">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B3">
+        <v>107</v>
+      </c>
+      <c r="C3">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>124</v>
+      </c>
+      <c r="E3">
         <v>118</v>
       </c>
-      <c r="C3">
-        <v>68</v>
-      </c>
-      <c r="D3">
-        <v>107</v>
-      </c>
-      <c r="E3">
-        <v>132</v>
-      </c>
       <c r="F3">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="I3">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E4">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F4">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G4">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="H4">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I4">
-        <v>182</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C5">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E5">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F5">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G5">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="H5">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="I5">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <v>92</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
         <v>105</v>
       </c>
-      <c r="C6">
-        <v>86</v>
-      </c>
-      <c r="D6">
-        <v>79</v>
-      </c>
-      <c r="E6">
-        <v>107</v>
-      </c>
       <c r="F6">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="G6">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="H6">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I6">
-        <v>181</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E7">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F7">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="G7">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="H7">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="I7">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
+        <v>112</v>
+      </c>
+      <c r="C8">
         <v>102</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>112</v>
+      </c>
+      <c r="E8">
         <v>97</v>
       </c>
-      <c r="D8">
-        <v>85</v>
-      </c>
-      <c r="E8">
-        <v>102</v>
-      </c>
       <c r="F8">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="G8">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="H8">
         <v>207</v>
       </c>
       <c r="I8">
-        <v>273</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F9">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="G9">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="H9">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="I9">
-        <v>124</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G10">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="H10">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="I10">
-        <v>235</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E11">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G11">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H11">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="I11">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C12">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D12">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E12">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F12">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G12">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="H12">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="I12">
-        <v>149</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D13">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G13">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="H13">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I13">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>74</v>
-      </c>
-      <c r="C14">
-        <v>132</v>
-      </c>
-      <c r="D14">
-        <v>74</v>
-      </c>
-      <c r="E14">
-        <v>68</v>
-      </c>
-      <c r="F14">
-        <v>99</v>
-      </c>
-      <c r="G14">
-        <v>191</v>
-      </c>
-      <c r="H14">
-        <v>206</v>
-      </c>
-      <c r="I14">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="E3:E14">
+  <sortState ref="E2:E13">
     <sortCondition descending="1" ref="E3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/files/helloworld.xlsx
+++ b/src/files/helloworld.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Node</t>
   </si>
@@ -100,15 +100,6 @@
   </si>
   <si>
     <t>Elevation</t>
-  </si>
-  <si>
-    <t>Consider Time %</t>
-  </si>
-  <si>
-    <t>Consider Dist %</t>
-  </si>
-  <si>
-    <t>Consider Elev %</t>
   </si>
   <si>
     <t># Iterations</t>
@@ -484,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +492,7 @@
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -509,22 +500,15 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -535,19 +519,10 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -587,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -607,7 +582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -627,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -647,7 +622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -667,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -687,7 +662,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -717,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/files/helloworld.xlsx
+++ b/src/files/helloworld.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
     <sheet name="Neighbors" sheetId="3" r:id="rId2"/>
+    <sheet name="FrequencyData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Node</t>
   </si>
@@ -106,6 +107,33 @@
   </si>
   <si>
     <t>Obstruction %</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Occurences/Year</t>
+  </si>
+  <si>
+    <t>Mean Hours / Year</t>
+  </si>
+  <si>
+    <t>Starting Time (s)</t>
+  </si>
+  <si>
+    <t>Starting Fuel (kW)</t>
   </si>
 </sst>
 </file>
@@ -157,10 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,12 +517,12 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -505,10 +535,14 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -521,8 +555,14 @@
       <c r="D2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +581,14 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -561,8 +607,15 @@
       <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>G4/SUM($G$4:$G$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -581,8 +634,15 @@
       <c r="F5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="0">G5/SUM($G$4:$G$10)</f>
+        <v>2.3622047244094488E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -601,8 +661,15 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.12598425196850394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -621,8 +688,15 @@
       <c r="F7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.56692913385826771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -641,8 +715,15 @@
       <c r="F8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.17322834645669291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -661,8 +742,15 @@
       <c r="F9">
         <v>-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7.0866141732283464E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -680,6 +768,13 @@
       </c>
       <c r="F10">
         <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.937007874015748E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1059,4 +1154,458 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <f>B2/$B$27</f>
+        <v>2.8312570781426953E-2</v>
+      </c>
+      <c r="D2">
+        <f>C2*$B$29</f>
+        <v>5.7038558065252111E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C25" si="0">B3/$B$27</f>
+        <v>2.8312570781426953E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" si="1">C3*$B$29</f>
+        <v>5.7038558065252111E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.7938844847112116E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>7.6431667807437828E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.2083805209513023E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4.4490075290896641E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.868629671574179E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.7645448323066393E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.9275198187995465E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.597079625827059E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>6.2287655719139301E-3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.2548482774355466E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.4156285390713477E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>2.8519279032626055E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.6613816534541337E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>5.3616244581336982E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3.3408833522083806E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>6.7305498516997495E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.9637599093997736E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>7.9853981291352957E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3.9637599093997736E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>7.9853981291352957E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>4.2468856172140433E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>8.5557837097878179E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>6.9648924122310302E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.4031485284052018E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B16">
+        <v>116</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6.5685164212910527E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.3232945471138489E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <v>122</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6.9082672706681766E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.3917408167921514E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B18">
+        <v>164</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>9.2865232163080402E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.870864704540269E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B19">
+        <v>153</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>8.6636466591166472E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.7453798767967144E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>140</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>7.9275198187995471E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.5970796258270591E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B21">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>6.1721404303510759E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.243440565822496E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B22">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.6432616081540201E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>9.3543235227013452E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4.2468856172140433E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>8.5557837097878179E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.9818799546998868E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>3.9926990645676478E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.0951302378255945E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>4.2208532968286564E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B2:B25)</f>
+        <v>73.583333333333329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <f>SUM(B2:B25)</f>
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>8766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B27/B28</f>
+        <v>0.20146018708647045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/files/helloworld.xlsx
+++ b/src/files/helloworld.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -185,12 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,13 +551,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>0.1</v>
       </c>
-      <c r="E2">
-        <v>10</v>
+      <c r="E2" s="5">
+        <v>2</v>
       </c>
       <c r="F2">
         <v>540</v>
@@ -1160,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
